--- a/Data/green_investment_scenarios.xlsx
+++ b/Data/green_investment_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magr099/Documents/GitHub/WorldTransFRIDA_MBG/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2051D868-BB04-7443-951F-4EDE30A2D3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD2A791-95D8-9746-872A-4C9BF0CD4C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{29D69C3D-28F1-B745-9B49-3F73A480BCC6}"/>
   </bookViews>
@@ -36,39 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Run Name</t>
   </si>
   <si>
-    <t>1. Baseline</t>
-  </si>
-  <si>
-    <t>4. Green Substitution (strong)</t>
-  </si>
-  <si>
-    <t>3. Green Substitution (medium)</t>
-  </si>
-  <si>
-    <t>2. Green Substitution (weak)</t>
-  </si>
-  <si>
-    <t>5. Degrowth</t>
-  </si>
-  <si>
-    <t>6. Green Addition (low)</t>
-  </si>
-  <si>
-    <t>8. Green addition (high)</t>
-  </si>
-  <si>
     <t>Green Innovation.green government fraction of innovation investment</t>
   </si>
   <si>
     <t>Green Innovation.additional government innovative investment fraction</t>
   </si>
   <si>
-    <t>7. Green addition</t>
+    <t>2. Baseline Green Innovation</t>
+  </si>
+  <si>
+    <t>1. Baseline Non-Green Innovation</t>
+  </si>
+  <si>
+    <t>3. Green Substitution (weak)</t>
+  </si>
+  <si>
+    <t>4. Green Substitution (medium)</t>
+  </si>
+  <si>
+    <t>5. Green Substitution (strong)</t>
+  </si>
+  <si>
+    <t>6. Degrowth</t>
+  </si>
+  <si>
+    <t>7. Green/Growth Addition (medium)</t>
+  </si>
+  <si>
+    <t>8. Green Addition (low)</t>
+  </si>
+  <si>
+    <t>9. Green Addition (high)</t>
+  </si>
+  <si>
+    <t>10. Growth Addition (low)</t>
+  </si>
+  <si>
+    <t>11. Growth Addition (high)</t>
   </si>
 </sst>
 </file>
@@ -448,17 +457,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722CA7E4-C551-FF48-8D67-A2F5D88ED193}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,16 +476,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -487,79 +496,112 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.15</v>
+      </c>
+      <c r="C11">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
